--- a/data/trans_orig/P1804_2016_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1804_2016_2023-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>21554</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13889</v>
+        <v>13081</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32018</v>
+        <v>31836</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07337420047251222</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0472792546000739</v>
+        <v>0.04452999412333105</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.108994395309079</v>
+        <v>0.108374830587312</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -763,19 +763,19 @@
         <v>41115</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29291</v>
+        <v>30925</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54306</v>
+        <v>56672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1424136751229583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1014557608984176</v>
+        <v>0.1071155866162511</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1881022122527198</v>
+        <v>0.1962987706802682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -784,19 +784,19 @@
         <v>62670</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48325</v>
+        <v>48040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78981</v>
+        <v>80211</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.10759417529772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08296640483653979</v>
+        <v>0.08247790825792599</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1355972314630269</v>
+        <v>0.1377104489610567</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>272207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261743</v>
+        <v>261925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279872</v>
+        <v>280680</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9266257995274878</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.891005604690921</v>
+        <v>0.8916251694126881</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9527207453999259</v>
+        <v>0.955470005876669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -834,19 +834,19 @@
         <v>247588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>234397</v>
+        <v>232031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259412</v>
+        <v>257778</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8575863248770417</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8118977877472802</v>
+        <v>0.8037012293197319</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8985442391015824</v>
+        <v>0.8928844133837489</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>485</v>
@@ -855,19 +855,19 @@
         <v>519794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>503483</v>
+        <v>502253</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>534139</v>
+        <v>534424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.89240582470228</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8644027685369731</v>
+        <v>0.8622895510389433</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9170335951634603</v>
+        <v>0.917522091742074</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>22776</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13832</v>
+        <v>14863</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33095</v>
+        <v>34117</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04531880603878795</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02752131879393525</v>
+        <v>0.02957411675974006</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06585018362982356</v>
+        <v>0.06788416450869325</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -980,19 +980,19 @@
         <v>33893</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23788</v>
+        <v>23589</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47966</v>
+        <v>47639</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06479488558544098</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04547609054349169</v>
+        <v>0.04509636058715592</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09169794774546745</v>
+        <v>0.09107378516302703</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -1001,19 +1001,19 @@
         <v>56669</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43011</v>
+        <v>42662</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72513</v>
+        <v>73294</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05525156341964348</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04193519394266083</v>
+        <v>0.0415944417621437</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07069903051025062</v>
+        <v>0.07146015432014281</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>479799</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>469480</v>
+        <v>468458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>488743</v>
+        <v>487712</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9546811939612121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9341498163701759</v>
+        <v>0.9321158354913068</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9724786812060647</v>
+        <v>0.9704258832402599</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>452</v>
@@ -1051,19 +1051,19 @@
         <v>489191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>475118</v>
+        <v>475445</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499296</v>
+        <v>499495</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.935205114414559</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9083020522545326</v>
+        <v>0.9089262148369731</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9545239094565084</v>
+        <v>0.9549036394128442</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>906</v>
@@ -1072,19 +1072,19 @@
         <v>968990</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>953146</v>
+        <v>952365</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>982648</v>
+        <v>982997</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9447484365803566</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9293009694897494</v>
+        <v>0.9285398456798571</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9580648060573392</v>
+        <v>0.9584055582378563</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>7228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3392</v>
+        <v>2937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13896</v>
+        <v>13706</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02268825258393505</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01064897945736204</v>
+        <v>0.00921810915309218</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0436204296395542</v>
+        <v>0.04302341225574446</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1197,19 +1197,19 @@
         <v>14490</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8052</v>
+        <v>8395</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23355</v>
+        <v>24025</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04308533589726639</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02394271478540468</v>
+        <v>0.02496292515636155</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06944368202896692</v>
+        <v>0.07143794149297858</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1218,19 +1218,19 @@
         <v>21718</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14180</v>
+        <v>14098</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32629</v>
+        <v>32447</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03316312673826661</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02165248562197302</v>
+        <v>0.02152797810821185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04982461686734108</v>
+        <v>0.04954672626863938</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>311337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>304669</v>
+        <v>304859</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315173</v>
+        <v>315628</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.977311747416065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9563795703604457</v>
+        <v>0.9569765877442555</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9893510205426379</v>
+        <v>0.9907818908469078</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>318</v>
@@ -1268,19 +1268,19 @@
         <v>321819</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>312954</v>
+        <v>312284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328257</v>
+        <v>327914</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9569146641027336</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9305563179710331</v>
+        <v>0.9285620585070214</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9760572852145952</v>
+        <v>0.9750370748436384</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>645</v>
@@ -1289,19 +1289,19 @@
         <v>633156</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>622245</v>
+        <v>622427</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640694</v>
+        <v>640776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9668368732617334</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9501753831326587</v>
+        <v>0.9504532737313606</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9783475143780269</v>
+        <v>0.9784720218917885</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>78926</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66166</v>
+        <v>63693</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97576</v>
+        <v>95401</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2133347198262735</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1788442926406703</v>
+        <v>0.1721590056077506</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2637437393998779</v>
+        <v>0.257864819527954</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -1414,19 +1414,19 @@
         <v>113833</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>95061</v>
+        <v>96444</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133307</v>
+        <v>134238</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2939267164260977</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2454551857713341</v>
+        <v>0.2490271062051488</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3442112956250132</v>
+        <v>0.3466152232663642</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>180</v>
@@ -1435,19 +1435,19 @@
         <v>192759</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>168320</v>
+        <v>170614</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>217452</v>
+        <v>219406</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2545523282519783</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2222794844668075</v>
+        <v>0.2253088610105258</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2871616072249297</v>
+        <v>0.2897417318638006</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>291038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>272388</v>
+        <v>274563</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>303798</v>
+        <v>306271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7866652801737265</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7362562606001219</v>
+        <v>0.7421351804720456</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8211557073593297</v>
+        <v>0.8278409943922492</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>256</v>
@@ -1485,19 +1485,19 @@
         <v>273450</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>253976</v>
+        <v>253045</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>292222</v>
+        <v>290839</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7060732835739023</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6557887043749867</v>
+        <v>0.6533847767336358</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7545448142286658</v>
+        <v>0.7509728937948512</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>532</v>
@@ -1506,19 +1506,19 @@
         <v>564488</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>539795</v>
+        <v>537841</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>588927</v>
+        <v>586633</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7454476717480216</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7128383927750703</v>
+        <v>0.7102582681361994</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7777205155331924</v>
+        <v>0.7746911389894742</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>6586</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2794</v>
+        <v>2821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12994</v>
+        <v>13155</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03117938641729717</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01322777427541027</v>
+        <v>0.01335786077964143</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06151967564639106</v>
+        <v>0.06227952600688476</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1631,19 +1631,19 @@
         <v>10897</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5655</v>
+        <v>5323</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19806</v>
+        <v>19263</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04985323743278928</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02587080379885646</v>
+        <v>0.02435395979086444</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0906102898185551</v>
+        <v>0.08812482982014366</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1652,19 +1652,19 @@
         <v>17483</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10479</v>
+        <v>10690</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27976</v>
+        <v>27187</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04067632711746953</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02438023213112089</v>
+        <v>0.02487160894597907</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06508943856422898</v>
+        <v>0.06325289685400907</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>204635</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198227</v>
+        <v>198066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208427</v>
+        <v>208400</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9688206135827029</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.938480324353609</v>
+        <v>0.9377204739931153</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9867722257245898</v>
+        <v>0.9866421392203586</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -1702,19 +1702,19 @@
         <v>207690</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198781</v>
+        <v>199324</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212932</v>
+        <v>213264</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9501467625672108</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.909389710181444</v>
+        <v>0.9118751701798563</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9741291962011432</v>
+        <v>0.9756460402091356</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>418</v>
@@ -1723,19 +1723,19 @@
         <v>412325</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>401832</v>
+        <v>402621</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>419329</v>
+        <v>419118</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9593236728825305</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.934910561435771</v>
+        <v>0.9367471031459912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9756197678688791</v>
+        <v>0.9751283910540209</v>
       </c>
     </row>
     <row r="18">
@@ -1840,19 +1840,19 @@
         <v>7149</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2907</v>
+        <v>2923</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14279</v>
+        <v>13956</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02617582077192726</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01064319904960948</v>
+        <v>0.0107011309466924</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05228214428765549</v>
+        <v>0.05110031961176011</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1861,19 +1861,19 @@
         <v>7149</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2818</v>
+        <v>2959</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13855</v>
+        <v>13885</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01333178422013587</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00525511915349918</v>
+        <v>0.005518933027474185</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02583675082308018</v>
+        <v>0.02589324244774015</v>
       </c>
     </row>
     <row r="20">
@@ -1903,19 +1903,19 @@
         <v>265966</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>258836</v>
+        <v>259159</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>270208</v>
+        <v>270192</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9738241792280727</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9477178557123446</v>
+        <v>0.9488996803882399</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9893568009503905</v>
+        <v>0.9892988690533076</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>515</v>
@@ -1924,19 +1924,19 @@
         <v>529089</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>522383</v>
+        <v>522353</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533420</v>
+        <v>533279</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9866682157798641</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.97416324917692</v>
+        <v>0.9741067575522602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9947448808465008</v>
+        <v>0.9944810669725259</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>31518</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21160</v>
+        <v>22114</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44082</v>
+        <v>43872</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04800440111151219</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03222864816046667</v>
+        <v>0.03368155927773527</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06714130384690721</v>
+        <v>0.06682134000146837</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2049,19 +2049,19 @@
         <v>48871</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37339</v>
+        <v>37748</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>64327</v>
+        <v>64682</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07069503067831658</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05401353616274297</v>
+        <v>0.05460544449077533</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.093052836997019</v>
+        <v>0.09356586859176189</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -2070,19 +2070,19 @@
         <v>80389</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64416</v>
+        <v>65472</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101734</v>
+        <v>100922</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05964210029141628</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04779176024168268</v>
+        <v>0.0485748918741588</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07547848823325615</v>
+        <v>0.07487617036071707</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>625040</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>612476</v>
+        <v>612686</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>635398</v>
+        <v>634444</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9519955988884878</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.932858696153093</v>
+        <v>0.9331786599985317</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9677713518395334</v>
+        <v>0.9663184407222649</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>602</v>
@@ -2120,19 +2120,19 @@
         <v>642423</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>626967</v>
+        <v>626612</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>653955</v>
+        <v>653546</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9293049693216834</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9069471630029811</v>
+        <v>0.9064341314082393</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.945986463837257</v>
+        <v>0.945394555509225</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1153</v>
@@ -2141,19 +2141,19 @@
         <v>1267463</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1246118</v>
+        <v>1246930</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1283436</v>
+        <v>1282380</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9403578997085837</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.924521511766744</v>
+        <v>0.9251238296392836</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9522082397583176</v>
+        <v>0.9514251081258414</v>
       </c>
     </row>
     <row r="24">
@@ -2245,19 +2245,19 @@
         <v>45102</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32651</v>
+        <v>33437</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58599</v>
+        <v>59409</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05792788395032844</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04193679442653197</v>
+        <v>0.04294598208725289</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07526327855528606</v>
+        <v>0.07630444441536857</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -2266,19 +2266,19 @@
         <v>81661</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64938</v>
+        <v>64525</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>102303</v>
+        <v>101348</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09884291551827731</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07860176476199432</v>
+        <v>0.07810208099221924</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1238278927635653</v>
+        <v>0.1226725165161117</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>114</v>
@@ -2287,19 +2287,19 @@
         <v>126762</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>105165</v>
+        <v>105450</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>152272</v>
+        <v>149560</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07899200545991575</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0655337163998764</v>
+        <v>0.06571103375964425</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09488853556071922</v>
+        <v>0.09319803642512405</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>733481</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>719984</v>
+        <v>719174</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>745932</v>
+        <v>745146</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9420721160496716</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.924736721444714</v>
+        <v>0.9236955555846316</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9580632055734681</v>
+        <v>0.9570540179127472</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>685</v>
@@ -2337,19 +2337,19 @@
         <v>744506</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>723864</v>
+        <v>724819</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>761229</v>
+        <v>761642</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9011570844817227</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8761721072364356</v>
+        <v>0.8773274834838887</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9213982352380058</v>
+        <v>0.921897919007781</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1391</v>
@@ -2358,19 +2358,19 @@
         <v>1477988</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1452478</v>
+        <v>1455190</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1499585</v>
+        <v>1499300</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9210079945400843</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9051114644392808</v>
+        <v>0.9068019635748759</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9344662836001236</v>
+        <v>0.9342889662403557</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>213690</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>186623</v>
+        <v>184708</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>245386</v>
+        <v>241416</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06295446880426407</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05498043968550995</v>
+        <v>0.05441634966269449</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0722923529680108</v>
+        <v>0.07112300757287141</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>317</v>
@@ -2483,19 +2483,19 @@
         <v>351909</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>314451</v>
+        <v>316900</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>389910</v>
+        <v>390419</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09928202700589622</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08871404516768384</v>
+        <v>0.08940515567537885</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1100030629552872</v>
+        <v>0.1101466697517541</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>524</v>
@@ -2504,19 +2504,19 @@
         <v>565599</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>515723</v>
+        <v>520609</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>611686</v>
+        <v>616598</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08151140115277844</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0743235330691428</v>
+        <v>0.07502769803624165</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08815327363210426</v>
+        <v>0.08886110363964948</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>3180660</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3148964</v>
+        <v>3152934</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3207727</v>
+        <v>3209642</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.937045531195736</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9277076470319889</v>
+        <v>0.9288769924271285</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9450195603144901</v>
+        <v>0.9455836503373054</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3021</v>
@@ -2554,19 +2554,19 @@
         <v>3192633</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3154632</v>
+        <v>3154123</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3230091</v>
+        <v>3227642</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9007179729941037</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8899969370447128</v>
+        <v>0.8898533302482462</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9112859548323168</v>
+        <v>0.9105948443246213</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6045</v>
@@ -2575,19 +2575,19 @@
         <v>6373293</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6327206</v>
+        <v>6322294</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6423169</v>
+        <v>6418283</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9184885988472216</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9118467263678957</v>
+        <v>0.9111388963603505</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.925676466930857</v>
+        <v>0.9249723019637583</v>
       </c>
     </row>
     <row r="30">
@@ -2923,19 +2923,19 @@
         <v>4174</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1391</v>
+        <v>1439</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9288</v>
+        <v>10285</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01309232696257397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004363836356430842</v>
+        <v>0.004512166107910119</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02912980329364614</v>
+        <v>0.03225745530975022</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -2944,19 +2944,19 @@
         <v>14639</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9531</v>
+        <v>9447</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21696</v>
+        <v>22088</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04631746182990444</v>
+        <v>0.04631746182990443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03015637866763256</v>
+        <v>0.02988929708054462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06864528205617465</v>
+        <v>0.06988377554506416</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -2965,19 +2965,19 @@
         <v>18814</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12628</v>
+        <v>12958</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27358</v>
+        <v>26716</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0296320332261341</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01988904006829039</v>
+        <v>0.02040944490486611</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04308972274949357</v>
+        <v>0.04207855325481567</v>
       </c>
     </row>
     <row r="5">
@@ -2994,19 +2994,19 @@
         <v>314671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>309557</v>
+        <v>308560</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317454</v>
+        <v>317406</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9869076730374261</v>
+        <v>0.9869076730374262</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9708701967063538</v>
+        <v>0.9677425446902493</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9956361636435691</v>
+        <v>0.9954878338920896</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>514</v>
@@ -3015,19 +3015,19 @@
         <v>301422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294365</v>
+        <v>293973</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>306530</v>
+        <v>306614</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9536825381700956</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9313547179438254</v>
+        <v>0.9301162244549358</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9698436213323673</v>
+        <v>0.9701107029194553</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>840</v>
@@ -3036,19 +3036,19 @@
         <v>616092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>607548</v>
+        <v>608190</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>622278</v>
+        <v>621948</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9703679667738661</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9569102772505063</v>
+        <v>0.957921446745185</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9801109599317096</v>
+        <v>0.979590555095134</v>
       </c>
     </row>
     <row r="6">
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10537</v>
+        <v>8575</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003602415203404282</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01985612494137764</v>
+        <v>0.01615960155313657</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -3161,19 +3161,19 @@
         <v>10592</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5245</v>
+        <v>5710</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19271</v>
+        <v>20664</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01942737928929271</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009619321708635975</v>
+        <v>0.01047316031407663</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03534550983725299</v>
+        <v>0.0379015586665009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -3182,19 +3182,19 @@
         <v>12504</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6339</v>
+        <v>6295</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22759</v>
+        <v>22854</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01162202641927582</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005892142694845914</v>
+        <v>0.005851061434145142</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02115458111471621</v>
+        <v>0.02124224188458259</v>
       </c>
     </row>
     <row r="8">
@@ -3211,7 +3211,7 @@
         <v>528735</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>520110</v>
+        <v>522072</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>530647</v>
@@ -3220,7 +3220,7 @@
         <v>0.9963975847965958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9801438750586228</v>
+        <v>0.9838403984468631</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3232,19 +3232,19 @@
         <v>534621</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>525942</v>
+        <v>524549</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>539968</v>
+        <v>539503</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9805726207107073</v>
+        <v>0.9805726207107072</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9646544901627468</v>
+        <v>0.9620984413334983</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9903806782913641</v>
+        <v>0.9895268396859235</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1086</v>
@@ -3253,19 +3253,19 @@
         <v>1063356</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1053101</v>
+        <v>1053006</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1069521</v>
+        <v>1069565</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9883779735807242</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9788454188852841</v>
+        <v>0.9787577581154175</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9941078573051542</v>
+        <v>0.994148938565855</v>
       </c>
     </row>
     <row r="9">
@@ -3357,19 +3357,19 @@
         <v>11503</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6536</v>
+        <v>6715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17810</v>
+        <v>18805</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03640236218594518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02068505563122684</v>
+        <v>0.02124894589597538</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05636277926911933</v>
+        <v>0.05951196938278414</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -3378,19 +3378,19 @@
         <v>28088</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20408</v>
+        <v>20589</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39052</v>
+        <v>37235</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07893280883591983</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05735027489984507</v>
+        <v>0.05786035522694737</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1097464528236397</v>
+        <v>0.1046388833935083</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -3399,19 +3399,19 @@
         <v>39591</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30468</v>
+        <v>29754</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50773</v>
+        <v>51486</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05892890045938035</v>
+        <v>0.05892890045938036</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04535049524456722</v>
+        <v>0.04428812585879899</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07557336666489489</v>
+        <v>0.07663517949213997</v>
       </c>
     </row>
     <row r="11">
@@ -3428,19 +3428,19 @@
         <v>304490</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>298183</v>
+        <v>297188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>309457</v>
+        <v>309278</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9635976378140548</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9436372207308806</v>
+        <v>0.9404880306172158</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9793149443687732</v>
+        <v>0.9787510541040244</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>494</v>
@@ -3449,19 +3449,19 @@
         <v>327754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>316790</v>
+        <v>318607</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>335434</v>
+        <v>335253</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9210671911640802</v>
+        <v>0.9210671911640803</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8902535471763603</v>
+        <v>0.895361116606492</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9426497251001552</v>
+        <v>0.9421396447730527</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>838</v>
@@ -3470,19 +3470,19 @@
         <v>632245</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>621063</v>
+        <v>620350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641368</v>
+        <v>642082</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9410710995406195</v>
+        <v>0.9410710995406196</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.924426633335105</v>
+        <v>0.9233648205078602</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9546495047554325</v>
+        <v>0.955711874141201</v>
       </c>
     </row>
     <row r="12">
@@ -3574,19 +3574,19 @@
         <v>128069</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>107477</v>
+        <v>104741</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152871</v>
+        <v>151424</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3432143595376175</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2880289504971439</v>
+        <v>0.2806974002366937</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.409681861355021</v>
+        <v>0.4058058362259402</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>204</v>
@@ -3595,19 +3595,19 @@
         <v>143629</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>126848</v>
+        <v>126256</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>162717</v>
+        <v>163390</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3403837516895527</v>
+        <v>0.3403837516895528</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3006150154314542</v>
+        <v>0.2992127532776533</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3856205086032327</v>
+        <v>0.387216845958115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>313</v>
@@ -3616,19 +3616,19 @@
         <v>271698</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>245014</v>
+        <v>242519</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>304375</v>
+        <v>301678</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3417121619443693</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3081523398354656</v>
+        <v>0.3050137804213891</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3828099196708067</v>
+        <v>0.379418443811768</v>
       </c>
     </row>
     <row r="14">
@@ -3645,19 +3645,19 @@
         <v>245076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>220274</v>
+        <v>221721</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>265668</v>
+        <v>268404</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6567856404623825</v>
+        <v>0.6567856404623826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.590318138644979</v>
+        <v>0.5941941637740598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7119710495028562</v>
+        <v>0.7193025997633062</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>395</v>
@@ -3666,19 +3666,19 @@
         <v>278332</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>259244</v>
+        <v>258571</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>295113</v>
+        <v>295705</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6596162483104474</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6143794913967673</v>
+        <v>0.612783154041885</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6993849845685459</v>
+        <v>0.7007872467223466</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>578</v>
@@ -3687,19 +3687,19 @@
         <v>523409</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>490732</v>
+        <v>493429</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>550093</v>
+        <v>552588</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6582878380556306</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6171900803291932</v>
+        <v>0.6205815561882322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6918476601645343</v>
+        <v>0.694986219578611</v>
       </c>
     </row>
     <row r="15">
@@ -3791,19 +3791,19 @@
         <v>2088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6122</v>
+        <v>5613</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01015165685677932</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003114235145999888</v>
+        <v>0.00304226079707756</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02976879527154505</v>
+        <v>0.02729173172447698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3812,19 +3812,19 @@
         <v>3843</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1819</v>
+        <v>1856</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7064</v>
+        <v>7146</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0169117928298933</v>
+        <v>0.01691179282989329</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008004014173731698</v>
+        <v>0.008167921176962281</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03109040917055327</v>
+        <v>0.03145229645170357</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3833,19 +3833,19 @@
         <v>5930</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3048</v>
+        <v>3172</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10073</v>
+        <v>10218</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01369999430241951</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007041601436284441</v>
+        <v>0.007327091517730111</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02326911159597986</v>
+        <v>0.02360448091790672</v>
       </c>
     </row>
     <row r="17">
@@ -3862,19 +3862,19 @@
         <v>203577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199543</v>
+        <v>200052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205025</v>
+        <v>205039</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9898483431432206</v>
+        <v>0.9898483431432208</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9702312047284548</v>
+        <v>0.9727082682755233</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9968857648540002</v>
+        <v>0.9969577392029224</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>483</v>
@@ -3883,19 +3883,19 @@
         <v>223372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>220151</v>
+        <v>220069</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225396</v>
+        <v>225359</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9830882071701069</v>
+        <v>0.9830882071701067</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9689095908294466</v>
+        <v>0.9685477035482966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9919959858262682</v>
+        <v>0.9918320788230378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>759</v>
@@ -3904,19 +3904,19 @@
         <v>426949</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>422806</v>
+        <v>422661</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429831</v>
+        <v>429707</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9863000056975806</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9767308884040199</v>
+        <v>0.9763955190820938</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9929583985637154</v>
+        <v>0.9926729084822702</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>16480</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11015</v>
+        <v>11417</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24127</v>
+        <v>24813</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06087622417809791</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0406903294548985</v>
+        <v>0.04217439902778722</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08912736149744588</v>
+        <v>0.09166175658032287</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -4029,19 +4029,19 @@
         <v>25031</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18608</v>
+        <v>17669</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34089</v>
+        <v>33107</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0949040231760705</v>
+        <v>0.09490402317607045</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07055014832457737</v>
+        <v>0.06699056805229857</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1292480663036579</v>
+        <v>0.1255255858239889</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -4050,19 +4050,19 @@
         <v>41511</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31213</v>
+        <v>31811</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52487</v>
+        <v>52122</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07766866466452788</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05840178429397347</v>
+        <v>0.05952092696935015</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09820652279590983</v>
+        <v>0.09752355058434806</v>
       </c>
     </row>
     <row r="20">
@@ -4079,19 +4079,19 @@
         <v>254227</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>246580</v>
+        <v>245894</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259692</v>
+        <v>259290</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9391237758219021</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9108726385025542</v>
+        <v>0.9083382434196773</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9593096705451019</v>
+        <v>0.9578256009722128</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>419</v>
@@ -4100,19 +4100,19 @@
         <v>238719</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>229661</v>
+        <v>230643</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>245142</v>
+        <v>246081</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9050959768239297</v>
+        <v>0.9050959768239293</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8707519336963426</v>
+        <v>0.8744744141760111</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9294498516754226</v>
+        <v>0.9330094319477024</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>765</v>
@@ -4121,19 +4121,19 @@
         <v>492946</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>481970</v>
+        <v>482335</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>503244</v>
+        <v>502646</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9223313353354722</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9017934772040901</v>
+        <v>0.902476449415652</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9415982157060266</v>
+        <v>0.9404790730306497</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>40484</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28491</v>
+        <v>28409</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56625</v>
+        <v>56781</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05625277568282089</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03958825403510305</v>
+        <v>0.03947344330313604</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07867975978311015</v>
+        <v>0.0788972517263735</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -4246,19 +4246,19 @@
         <v>70383</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54252</v>
+        <v>55422</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86925</v>
+        <v>86241</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09182236841051722</v>
+        <v>0.09182236841051719</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07077759327638546</v>
+        <v>0.0723039872700587</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1134030187929979</v>
+        <v>0.112510352252964</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>119</v>
@@ -4267,19 +4267,19 @@
         <v>110868</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>93098</v>
+        <v>90597</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>133707</v>
+        <v>130352</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07459793126090879</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06264167524551403</v>
+        <v>0.06095872618788423</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08996561034859082</v>
+        <v>0.08770845574151956</v>
       </c>
     </row>
     <row r="23">
@@ -4296,19 +4296,19 @@
         <v>679203</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>663062</v>
+        <v>662906</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>691196</v>
+        <v>691278</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9437472243171792</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9213202402168912</v>
+        <v>0.9211027482736264</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9604117459648976</v>
+        <v>0.9605265566968639</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>873</v>
@@ -4317,19 +4317,19 @@
         <v>696131</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>679589</v>
+        <v>680273</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>712262</v>
+        <v>711092</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9081776315894827</v>
+        <v>0.9081776315894828</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8865969812070023</v>
+        <v>0.8874896477470361</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9292224067236149</v>
+        <v>0.9276960127299413</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1437</v>
@@ -4338,19 +4338,19 @@
         <v>1375333</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1352494</v>
+        <v>1355849</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1393103</v>
+        <v>1395604</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9254020687390914</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9100343896514084</v>
+        <v>0.9122915442584805</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9373583247544859</v>
+        <v>0.9390412738121158</v>
       </c>
     </row>
     <row r="24">
@@ -4442,19 +4442,19 @@
         <v>13857</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7719</v>
+        <v>7774</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23065</v>
+        <v>22959</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01736370451155947</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009671843222269967</v>
+        <v>0.009741523080572301</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02890039203370433</v>
+        <v>0.02876763856270237</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -4463,19 +4463,19 @@
         <v>21628</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14400</v>
+        <v>14367</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31507</v>
+        <v>31462</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02601654121198235</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01732140348453602</v>
+        <v>0.01728210826761205</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03789942142414883</v>
+        <v>0.0378457509101286</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -4484,19 +4484,19 @@
         <v>35486</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23742</v>
+        <v>25950</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>47055</v>
+        <v>48399</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02177843417106679</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01457087749752067</v>
+        <v>0.01592620543716932</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02887875032820505</v>
+        <v>0.02970335390624487</v>
       </c>
     </row>
     <row r="26">
@@ -4513,19 +4513,19 @@
         <v>784215</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>775007</v>
+        <v>775113</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>790353</v>
+        <v>790298</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9826362954884404</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9710996079662956</v>
+        <v>0.9712323614372975</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9903281567777299</v>
+        <v>0.9902584769194277</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1036</v>
@@ -4534,19 +4534,19 @@
         <v>809703</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>799824</v>
+        <v>799869</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>816931</v>
+        <v>816964</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9739834587880176</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9621005785758513</v>
+        <v>0.9621542490898712</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9826785965154643</v>
+        <v>0.9827178917323879</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1784</v>
@@ -4555,19 +4555,19 @@
         <v>1593917</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1582348</v>
+        <v>1581004</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1605661</v>
+        <v>1603453</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9782215658289332</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9711212496717949</v>
+        <v>0.9702966460937551</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9854291225024796</v>
+        <v>0.9840737945628307</v>
       </c>
     </row>
     <row r="27">
@@ -4659,19 +4659,19 @@
         <v>218567</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>189370</v>
+        <v>187094</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>258795</v>
+        <v>253520</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.061868615888674</v>
+        <v>0.06186861588867398</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05360401741350358</v>
+        <v>0.05295980355964005</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07325562295129187</v>
+        <v>0.07176252333667803</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>439</v>
@@ -4680,19 +4680,19 @@
         <v>317833</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>284731</v>
+        <v>289086</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>348659</v>
+        <v>351778</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08525810957350392</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07637869879145576</v>
+        <v>0.07754675012758683</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09352711328986898</v>
+        <v>0.09436385428623817</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>647</v>
@@ -4701,19 +4701,19 @@
         <v>536400</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>493192</v>
+        <v>490724</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>585311</v>
+        <v>584268</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.07387765353324641</v>
+        <v>0.07387765353324639</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06792674201742223</v>
+        <v>0.0675868384995318</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08061414841294033</v>
+        <v>0.08047040195165273</v>
       </c>
     </row>
     <row r="29">
@@ -4730,19 +4730,19 @@
         <v>3314195</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3273967</v>
+        <v>3279242</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3343392</v>
+        <v>3345668</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9381313841113261</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.926744377048708</v>
+        <v>0.9282374766633222</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9463959825864963</v>
+        <v>0.94704019644036</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4919</v>
@@ -4751,19 +4751,19 @@
         <v>3410056</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3379230</v>
+        <v>3376111</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3443158</v>
+        <v>3438803</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.914741890426496</v>
+        <v>0.9147418904264961</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9064728867101308</v>
+        <v>0.9056361457137617</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9236213012085441</v>
+        <v>0.9224532498724132</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8087</v>
@@ -4772,19 +4772,19 @@
         <v>6724251</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6675340</v>
+        <v>6676383</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6767459</v>
+        <v>6769927</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9261223464667537</v>
+        <v>0.9261223464667536</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9193858515870593</v>
+        <v>0.9195295980483472</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9320732579825775</v>
+        <v>0.932413161500468</v>
       </c>
     </row>
     <row r="30">
